--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="710"/>
+    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -355,7 +355,7 @@
     <t>*dark_config</t>
   </si>
   <si>
-    <t>#taskcondition</t>
+    <t>#condition</t>
   </si>
   <si>
     <t>cnt,en</t>
@@ -447,30 +447,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -481,12 +467,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +494,59 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,6 +558,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -515,30 +574,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,33 +611,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,52 +634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,7 +645,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,187 +660,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,25 +849,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,6 +896,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -922,23 +914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +930,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,10 +953,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +965,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1203,24 +1195,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="宋体"/>
@@ -1266,8 +1241,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1615,7 +1590,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2070,21 +2045,21 @@
   <conditionalFormatting sqref="A5">
     <cfRule type="duplicateValues" dxfId="0" priority="7" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="0" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A65536">
-    <cfRule type="duplicateValues" dxfId="2" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="710"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>*dark_config</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>累计消耗100金币</t>
+  </si>
+  <si>
+    <t>owngrade</t>
+  </si>
+  <si>
+    <t>累计获取10积分</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -473,16 +479,10 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -491,6 +491,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -501,6 +508,83 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,20 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -542,77 +612,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,11 +627,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,181 +660,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,16 +849,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,6 +874,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,24 +937,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -930,21 +945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +953,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,140 +965,140 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,26 +1109,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1590,7 +1587,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1624,8 +1621,8 @@
         <v>3</v>
       </c>
       <c r="I1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -1658,10 +1655,10 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1699,10 +1696,10 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1731,16 +1728,16 @@
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1765,8 +1762,8 @@
         <v>0</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
         <v>29</v>
@@ -1780,11 +1777,33 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" s="4" customFormat="1" spans="2:9">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="I6" s="5"/>
+    <row r="6" s="4" customFormat="1" spans="1:12">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="2:9">
       <c r="B7" s="8"/>

--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author>xiejiayin</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="2">
+    <comment ref="A4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1">
+    <comment ref="E4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="H4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1">
+    <comment ref="I4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1">
+    <comment ref="K4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,14 +456,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -483,157 +482,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -644,8 +492,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,192 +508,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -847,254 +521,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,8 +543,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,83 +565,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1222,7 +589,211 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1238,18 +809,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1578,19 +1152,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" style="4"/>
     <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
@@ -1607,7 +1181,7 @@
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1198,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1665,7 +1239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1703,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:12">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:20">
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1777,7 +1351,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:12">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1805,284 +1379,239 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="2:9">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="9"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="E8" s="9"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="E10" s="9"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="9"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="9"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="9"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="9"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="E16" s="9"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="E17" s="9"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="E18" s="9"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="E19" s="9"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="E20" s="9"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="E21" s="9"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="E22" s="9"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="9"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="E24" s="9"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="E25" s="9"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="E27" s="9"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="E29" s="9"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="E31" s="9"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="E32" s="9"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="E33" s="9"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="E34" s="9"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="E35" s="9"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="E36" s="9"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="2:9">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="E37" s="9"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C38" s="8"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="8"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="8"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="3:9">
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="8"/>
-      <c r="I51" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A65536">
-    <cfRule type="duplicateValues" dxfId="1" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="710"/>
+    <workbookView windowWidth="28125" windowHeight="12090" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <author>xiejiayin</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0">
+    <comment ref="J2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0">
+    <comment ref="A4" authorId="2">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1" shapeId="0">
+    <comment ref="B4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -190,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -213,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -237,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -260,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -290,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -320,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1" shapeId="0">
+    <comment ref="K4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -456,8 +451,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -482,6 +483,157 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -492,14 +644,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +654,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -521,12 +847,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -537,15 +1105,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,18 +1140,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -589,14 +1209,14 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -606,194 +1226,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -809,21 +1242,18 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1152,36 +1582,35 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="4"/>
-    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4"/>
-    <col min="5" max="5" width="15.5" style="4"/>
-    <col min="6" max="7" width="15.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="11.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10.625" style="5"/>
+    <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="5"/>
+    <col min="5" max="5" width="10.625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="6" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,11 +1623,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="12"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1223,395 +1652,378 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" s="2" customFormat="1" spans="1:12">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:12">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" s="4" customFormat="1" spans="1:12">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>100</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="E5" s="8"/>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="I5" s="15"/>
+      <c r="L5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:12">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="E6" s="8"/>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="I6" s="15"/>
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="8"/>
+    <row r="7" spans="2:5">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="12" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="6" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="5" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="10" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A65536">
-    <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A7:A65536">
+    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090" tabRatio="710"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>*dark_config</t>
   </si>
@@ -445,7 +445,10 @@
     <t>owngrade</t>
   </si>
   <si>
-    <t>累计获取10积分</t>
+    <t>首次获取积分</t>
+  </si>
+  <si>
+    <t>段位星级升级</t>
   </si>
 </sst>
 </file>
@@ -521,14 +524,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,6 +539,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,53 +629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -660,6 +663,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -672,49 +693,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,115 +771,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,15 +907,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -941,6 +935,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -953,10 +956,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +968,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1199,6 +1202,13 @@
   <dxfs count="4">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1209,13 +1219,6 @@
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1591,7 +1594,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1780,7 +1783,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4">
@@ -1794,15 +1797,61 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="10"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>160</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="9"/>
@@ -2005,21 +2054,21 @@
       <c r="C51" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A9:A65536">
+    <cfRule type="duplicateValues" dxfId="1" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="14" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A5 A7">
+    <cfRule type="duplicateValues" dxfId="1" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A65536">
-    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A6 A8">
+    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>*dark_config</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>段位星级升级</t>
+  </si>
+  <si>
+    <t>totalsignin</t>
+  </si>
+  <si>
+    <t>首日签到</t>
+  </si>
+  <si>
+    <t>累计4次签到</t>
+  </si>
+  <si>
+    <t>累计7次签到</t>
   </si>
 </sst>
 </file>
@@ -524,14 +536,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,6 +553,44 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,44 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -663,85 +675,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,31 +801,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,55 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +919,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -935,15 +956,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -956,145 +968,145 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1594,7 +1606,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1808,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4">
@@ -1853,20 +1865,80 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
       <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
       <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
       <c r="E11" s="10"/>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="9"/>
@@ -2061,13 +2133,13 @@
     <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A65536">
+  <conditionalFormatting sqref="A12:A65536">
     <cfRule type="duplicateValues" dxfId="1" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7">
+  <conditionalFormatting sqref="A5 A7 A9 A11">
     <cfRule type="duplicateValues" dxfId="1" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6 A8">
+  <conditionalFormatting sqref="A6 A8 A10">
     <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -445,10 +445,10 @@
     <t>owngrade</t>
   </si>
   <si>
-    <t>首次获取积分</t>
-  </si>
-  <si>
-    <t>段位星级升级</t>
+    <t>星级升级</t>
+  </si>
+  <si>
+    <t>段位升级</t>
   </si>
   <si>
     <t>totalsignin</t>
@@ -468,10 +468,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -505,8 +505,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +535,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -528,64 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -594,27 +618,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,29 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -669,13 +669,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +723,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,31 +777,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,61 +807,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,43 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +860,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -874,30 +889,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,6 +911,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -928,11 +928,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,9 +952,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,133 +980,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1137,10 +1137,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1639,8 +1639,8 @@
         <v>3</v>
       </c>
       <c r="I1" s="12"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -1673,10 +1673,10 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1795,7 +1795,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="4">
@@ -1820,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="4">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="4">
@@ -1848,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="4">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="4">
@@ -1869,7 +1869,7 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1878,7 +1878,7 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4">
         <v>0</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1905,7 +1905,7 @@
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="4">
         <v>0</v>
       </c>
@@ -1920,16 +1920,16 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="4">
         <v>0</v>
       </c>
@@ -1941,189 +1941,189 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="E25" s="9"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="E26" s="9"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="E27" s="9"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="E28" s="9"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="9"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="E30" s="9"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="E31" s="9"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="E32" s="9"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="9"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="E34" s="9"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="E35" s="9"/>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="E36" s="9"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="E37" s="9"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="9"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="9"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="9"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="9"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="9"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="9"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="9"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="9"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="9"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="9"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="9"/>
+      <c r="C48" s="10"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="9"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="9"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="9"/>
+      <c r="C51" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A4">

--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>*dark_config</t>
   </si>
@@ -451,16 +451,19 @@
     <t>段位升级</t>
   </si>
   <si>
+    <t>累计消耗2000金币</t>
+  </si>
+  <si>
     <t>totalsignin</t>
   </si>
   <si>
-    <t>首日签到</t>
-  </si>
-  <si>
-    <t>累计4次签到</t>
-  </si>
-  <si>
-    <t>累计7次签到</t>
+    <t>累计在线1天</t>
+  </si>
+  <si>
+    <t>累计在线4天</t>
+  </si>
+  <si>
+    <t>累计在线7天</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -498,10 +501,123 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,20 +629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -535,73 +637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -610,45 +645,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -669,12 +672,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -693,163 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,46 +867,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,26 +899,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,153 +939,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1606,7 +1609,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M31" sqref="M30:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1862,7 +1865,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1870,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>28</v>
@@ -1889,7 +1892,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1897,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>28</v>
@@ -1913,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1921,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>28</v>
@@ -1937,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5">

--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author>xiejiayin</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="2">
+    <comment ref="A4" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1">
+    <comment ref="E4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="H4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1">
+    <comment ref="I4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1">
+    <comment ref="K4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,14 +474,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -501,157 +500,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -662,202 +510,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -865,254 +533,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,68 +588,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1244,7 +615,102 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1260,18 +726,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1600,19 +1069,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M30:M31"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" style="5"/>
     <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
@@ -1628,7 +1097,7 @@
     <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1114,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:12">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1721,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1762,7 +1231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:12">
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1787,7 +1256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:12">
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1812,7 +1281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1840,7 +1309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1868,7 +1337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1895,7 +1364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1919,7 +1388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1943,211 +1412,211 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="E25" s="9"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="E26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="E27" s="9"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="E28" s="9"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="E29" s="9"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="E30" s="9"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="E31" s="9"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="E32" s="9"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="E33" s="9"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="E34" s="9"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="E35" s="9"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="E36" s="9"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="E37" s="9"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C45" s="10"/>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C47" s="10"/>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="17" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="16" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A65536">
-    <cfRule type="duplicateValues" dxfId="1" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11">
     <cfRule type="duplicateValues" dxfId="1" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 A8 A10">
-    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/框架-条件配置.xlsx
+++ b/Resource/excel/框架-条件配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="710"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditioin" sheetId="14" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <author>xiejiayin</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0">
+    <comment ref="J2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0">
+    <comment ref="A4" authorId="2">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1" shapeId="0">
+    <comment ref="B4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -190,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -213,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -237,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -260,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -290,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -320,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1" shapeId="0">
+    <comment ref="K4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -474,8 +469,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -500,6 +501,157 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -510,22 +662,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -533,12 +865,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -588,13 +1162,68 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -615,102 +1244,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -726,21 +1260,18 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1069,19 +1600,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="5"/>
     <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
@@ -1097,7 +1628,7 @@
     <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1645,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1190,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" s="4" customFormat="1" spans="1:12">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1256,7 +1787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" s="4" customFormat="1" spans="1:12">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1281,7 +1812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1309,7 +1840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1337,7 +1868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1364,7 +1895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1388,7 +1919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1412,211 +1943,211 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="E25" s="9"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="E26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="E27" s="9"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="E28" s="9"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="E29" s="9"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="E30" s="9"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="E31" s="9"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="E32" s="9"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="E33" s="9"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="E34" s="9"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="E35" s="9"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="E36" s="9"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="E37" s="9"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3">
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3">
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3">
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3">
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3">
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3">
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3">
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3">
       <c r="C45" s="10"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3">
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3">
       <c r="C47" s="10"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3">
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3">
       <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3">
       <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3">
       <c r="C51" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="7" priority="17" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="16" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="14" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A65536">
-    <cfRule type="duplicateValues" dxfId="2" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11">
     <cfRule type="duplicateValues" dxfId="1" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 A8 A10">
-    <cfRule type="duplicateValues" dxfId="0" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>